--- a/biology/Botanique/Élatine_poivre-d'eau/Élatine_poivre-d'eau.xlsx
+++ b/biology/Botanique/Élatine_poivre-d'eau/Élatine_poivre-d'eau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89latine_poivre-d%27eau</t>
+          <t>Élatine_poivre-d'eau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elatine hydropiper, de noms vernaculaire Élatine poivre-d'eau ou simplement Poivre d'eau, est une espèce de plantes à fleurs de la famille des Elatinaceae et du genre Elatine. C'est une plante herbacée aquatique annuelle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89latine_poivre-d%27eau</t>
+          <t>Élatine_poivre-d'eau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydropiper signifie « poivre d'eau », nom donné à la plante du fait de ses feuilles au goût très fort[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydropiper signifie « poivre d'eau », nom donné à la plante du fait de ses feuilles au goût très fort.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89latine_poivre-d%27eau</t>
+          <t>Élatine_poivre-d'eau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante annuelle mesure de 2 à 15 cm de hauteur ; sa tige est couchée, rameuse et radicante. Les feuilles opposées, ovales ou spatulées, sont longues au maximum de 5 mm, atténuées en pétiole ; le pétiole est de 1 à 3 fois plus long que le limbe[2].
-Appareil reproducteur
-Les fleurs tétramères, axillaires, sont plus ou moins sessiles ; les pétales blanc rosé, longs d'environ 0,5 mm, égalent les sépales. Il y a huit étamines et quatre styles. Le fruit est une capsule subglobuleuse et comprimée. Les graines sont recourbées en fer à cheval. La floraison a lieu de juin à septembre[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante annuelle mesure de 2 à 15 cm de hauteur ; sa tige est couchée, rameuse et radicante. Les feuilles opposées, ovales ou spatulées, sont longues au maximum de 5 mm, atténuées en pétiole ; le pétiole est de 1 à 3 fois plus long que le limbe.
 </t>
         </is>
       </c>
@@ -558,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89latine_poivre-d%27eau</t>
+          <t>Élatine_poivre-d'eau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'élatine poivre-d'eau pousse sur les rives vaseuses, temporairement inondées, les berges exondées des mares, marais et fossés[2].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs tétramères, axillaires, sont plus ou moins sessiles ; les pétales blanc rosé, longs d'environ 0,5 mm, égalent les sépales. Il y a huit étamines et quatre styles. Le fruit est une capsule subglobuleuse et comprimée. Les graines sont recourbées en fer à cheval. La floraison a lieu de juin à septembre.
 </t>
         </is>
       </c>
@@ -589,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89latine_poivre-d%27eau</t>
+          <t>Élatine_poivre-d'eau</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,12 +627,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a une répartition circumboréale, elle est donc commune à l'ensemble de l'hémisphère nord tempéré et froid[2].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'élatine poivre-d'eau pousse sur les rives vaseuses, temporairement inondées, les berges exondées des mares, marais et fossés.
 </t>
         </is>
       </c>
@@ -620,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89latine_poivre-d%27eau</t>
+          <t>Élatine_poivre-d'eau</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,10 +660,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a une répartition circumboréale, elle est donc commune à l'ensemble de l'hémisphère nord tempéré et froid.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Élatine_poivre-d'eau</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89latine_poivre-d%27eau</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Alsinastrum gyrospermum (Fr.) Rupr.
 Alsinastrum octandrum Bub.
@@ -661,7 +721,7 @@
 Elatinella hydropiper (L.) Oplz
 Potamopitys hydropiper (L.) Kuntze
 Potamopitys major (A. Br.) Kuntze
-Rhizium curvum Dulac[3]</t>
+Rhizium curvum Dulac</t>
         </is>
       </c>
     </row>
